--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3141556.780044317</v>
+        <v>3139304.700333109</v>
       </c>
     </row>
     <row r="7">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97.03085908134881</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>239.1697648352427</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.533183649868</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>38.09653235049796</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>21.41622830191661</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>128.8771852996427</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>142.6796929637946</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>99.21970892729119</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.11117103016747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>14.42881909501659</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>57.29212650174214</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.08802744677213</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>61.36917500886968</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>136.6755965411348</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>14.92158678358339</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>137.7610225486951</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>75.7590545620421</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>40.53421095546916</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2290,10 +2290,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>90.14863908058098</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>116.4636264596498</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>181.4413632672543</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>173.7797061357541</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972962</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,7 +2959,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,10 +3004,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>247.2924896597629</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>92.58181139165768</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>48.85497112745813</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>113.5262552810678</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,10 +3427,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>54.31367585848648</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>94.05355358057989</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,13 +3661,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>105.6507867899569</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>141.4513012076587</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>133.9838498346381</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>139.511541534052</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>120.1447214650588</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1771.418012197379</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C2" t="n">
-        <v>1402.455495256968</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="D2" t="n">
-        <v>1402.455495256968</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1016.667242658723</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>605.6813378691159</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,7 +4340,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.483610522581</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2158.017852261501</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2158.017852261501</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>678.4618728343355</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>678.4618728343355</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>528.3452334219998</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218342</v>
@@ -4486,52 +4486,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181855</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181855</v>
+        <v>507.434506214537</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181855</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181855</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="W4" t="n">
-        <v>899.2544519778656</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="X4" t="n">
-        <v>899.2544519778656</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y4" t="n">
-        <v>678.4618728343355</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1808.800296392465</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>942.9472709150261</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>942.9472709150261</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>557.1590183167818</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>550.2135175675784</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,19 +4565,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>1808.800296392465</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1808.800296392465</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>362.8459426266613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>362.8459426266613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4723,52 +4723,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>730.8346203663274</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>730.8346203663274</v>
       </c>
       <c r="U7" t="n">
-        <v>631.7841389438285</v>
+        <v>730.8346203663274</v>
       </c>
       <c r="V7" t="n">
-        <v>377.0996507379416</v>
+        <v>476.1501321604405</v>
       </c>
       <c r="W7" t="n">
-        <v>377.0996507379416</v>
+        <v>476.1501321604405</v>
       </c>
       <c r="X7" t="n">
-        <v>377.0996507379416</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y7" t="n">
-        <v>362.8459426266613</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
         <v>821.1650657389509</v>
@@ -4802,7 +4802,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4814,7 +4814,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3311.03125686673</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3057.500780140566</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>3057.500780140566</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.03827352421</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X8" t="n">
-        <v>2403.03827352421</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.167438673965</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,10 +4884,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4896,7 +4896,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3252.789632268997</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>3083.85344934109</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>2933.736809928754</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>2785.823716346361</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>2638.933768848451</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>3325.605821609171</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S10" t="n">
-        <v>3325.605821609171</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="T10" t="n">
-        <v>3325.605821609171</v>
+        <v>417.6040489720648</v>
       </c>
       <c r="U10" t="n">
-        <v>3325.605821609171</v>
+        <v>128.5011820977084</v>
       </c>
       <c r="V10" t="n">
-        <v>3325.605821609171</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="W10" t="n">
-        <v>3325.605821609171</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X10" t="n">
-        <v>3325.605821609171</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y10" t="n">
-        <v>3325.605821609171</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,19 +5042,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5118,22 +5118,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>835.5837926935558</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>835.5837926935558</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1755.431557602304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1466.014387565343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1238.024836667326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1017.232257523796</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5370,13 +5370,13 @@
         <v>1965.532750177311</v>
       </c>
       <c r="O15" t="n">
-        <v>1965.532750177311</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851671</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C16" t="n">
-        <v>527.7722521572603</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D16" t="n">
-        <v>527.7722521572603</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E16" t="n">
-        <v>379.8591585748671</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F16" t="n">
-        <v>232.9692110769568</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>232.9692110769568</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1026.887310050512</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,67 +5732,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397182</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,16 +5975,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>847.644273983533</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1794.18697620015</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1539.502487994263</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1250.085317957303</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6224,49 +6224,49 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273903</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M27" t="n">
-        <v>692.9625378792909</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N27" t="n">
-        <v>1320.560501433898</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>809.0422355233313</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C28" t="n">
-        <v>640.1060525954244</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D28" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1801.926023807726</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1547.241535601839</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1257.824365564879</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X28" t="n">
-        <v>1029.834814666861</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y28" t="n">
-        <v>809.0422355233313</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578166</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
     <row r="32">
@@ -6680,34 +6680,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>315.9123021921482</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921482</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3403484614387</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>814.4041655335318</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D34" t="n">
-        <v>664.287526121196</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683105</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>641.8461362382112</v>
+        <v>639.6425904082686</v>
       </c>
       <c r="C37" t="n">
-        <v>472.9099533103043</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D37" t="n">
-        <v>322.7933138979686</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E37" t="n">
         <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2325.055080985707</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2105.453616008648</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1816.378389352846</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1561.693901146959</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1272.276731109998</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1044.287180211981</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>823.4946010684509</v>
+        <v>821.2910552385083</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,31 +7160,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
@@ -7360,22 +7360,22 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2273.199413378161</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,7 +7427,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O42" t="n">
-        <v>2223.769289033212</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>641.1291986799072</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D43" t="n">
-        <v>491.0125592675714</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851783</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>746.8882603249857</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1052.829365488567</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C46" t="n">
-        <v>883.8931825606599</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D46" t="n">
-        <v>733.7765431483241</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E46" t="n">
-        <v>585.863449565931</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>438.9735020680206</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1972.677130397314</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1683.259960360354</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1455.270409462336</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1234.477830318806</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>11.93987647707755</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>130.4994612393479</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2.533690297528835</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>176.3785887617859</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>196.0358353086632</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>32.15184655856254</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>104.7431111219899</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>112.40476825349</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>210.9709121168614</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,10 +24892,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>4.845153664065066</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>126.0028419604371</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>118.3918499711697</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>32.90770736550132</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>126.7126101431581</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>124.5310997715149</v>
       </c>
     </row>
     <row r="38">
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25600,10 +25600,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>84.25835418137842</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>45.84813034729925</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>16.31315520054551</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>45.37941682721006</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>720281.9859240388</v>
+        <v>720281.9859240387</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312481</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="G2" t="n">
         <v>706253.2747287555</v>
@@ -26332,28 +26332,28 @@
         <v>706253.2747287554</v>
       </c>
       <c r="I2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="M2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="J2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287556</v>
-      </c>
       <c r="N2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="O2" t="n">
         <v>706253.2747287557</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972777</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.74410405256</v>
+      </c>
+      <c r="C4" t="n">
+        <v>93596.74410405254</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405252</v>
-      </c>
-      <c r="C4" t="n">
-        <v>93596.74410405252</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26430,28 +26430,28 @@
         <v>14826.69604186737</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186731</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186734</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811863.8817617905</v>
+        <v>-811863.8817617901</v>
       </c>
       <c r="C6" t="n">
-        <v>516880.8639658022</v>
+        <v>516880.8639658021</v>
       </c>
       <c r="D6" t="n">
-        <v>516880.8639658022</v>
+        <v>516880.8639658021</v>
       </c>
       <c r="E6" t="n">
-        <v>264891.5870556257</v>
+        <v>264856.84913019</v>
       </c>
       <c r="F6" t="n">
-        <v>590304.0488629811</v>
+        <v>590269.3109375456</v>
       </c>
       <c r="G6" t="n">
-        <v>590304.048862981</v>
+        <v>590269.3109375454</v>
       </c>
       <c r="H6" t="n">
-        <v>590304.0488629809</v>
+        <v>590269.3109375453</v>
       </c>
       <c r="I6" t="n">
-        <v>590304.048862981</v>
+        <v>590269.3109375451</v>
       </c>
       <c r="J6" t="n">
-        <v>372772.8464657036</v>
+        <v>372738.1085402674</v>
       </c>
       <c r="K6" t="n">
-        <v>590304.048862981</v>
+        <v>590269.3109375455</v>
       </c>
       <c r="L6" t="n">
-        <v>590304.048862981</v>
+        <v>590269.3109375453</v>
       </c>
       <c r="M6" t="n">
-        <v>505249.0209274693</v>
+        <v>505214.2830020335</v>
       </c>
       <c r="N6" t="n">
-        <v>590304.0488629808</v>
+        <v>590269.3109375456</v>
       </c>
       <c r="O6" t="n">
-        <v>590304.0488629813</v>
+        <v>590269.3109375456</v>
       </c>
       <c r="P6" t="n">
-        <v>590304.048862981</v>
+        <v>590269.3109375455</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26793,7 +26793,7 @@
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>257.6521825393341</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>171.7519608182108</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>248.1153058551149</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>265.1067700346744</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>236.3957064713649</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>268.2420326896589</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>90.5493164041507</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.4734823219273</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>189.4891510446036</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>328.9458121543115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.7439527351652</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>190.7684683149583</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-6.632190443471565e-14</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,10 +31838,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,13 +31850,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P12" t="n">
-        <v>270.4557004614713</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>491.819738231079</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.6580975439405</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,31 +32309,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>687.544841654958</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32488,7 +32488,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236501</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669223</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M21" t="n">
-        <v>167.4835451665588</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32731,7 +32731,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>242.2322097768135</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>362.5355639238086</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>263.7590256391499</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33418,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>209.2370040367373</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33655,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>218.6425359394812</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>301.1823051500301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>301.1823051500301</v>
+        <v>167.4835451665585</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>287.9685048518522</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>230.9747494877451</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34366,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>295.3955842839429</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,13 +35498,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P12" t="n">
-        <v>136.4812930471411</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>357.8453308167487</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>556.2031295716247</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683806</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M21" t="n">
-        <v>25.34951124454049</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>103.6778299969394</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>222.5537898377871</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>132.4173135558165</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>71.39556506237828</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>159.0482712280117</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>159.0482712280117</v>
+        <v>25.34951124454015</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>150.1270658774932</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>97.00034207341486</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>157.5541453095838</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
